--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_PRI_GrantControlProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_PRI_GrantControlProfile_AddNewProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ABC2E5-9AB1-41B1-9823-8BEF30A00A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5581F6B7-177D-4B60-9439-F018A01293BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
   <si>
     <t>Keyword</t>
   </si>
@@ -245,9 +245,6 @@
     <t xml:space="preserve"> 0 - NONE </t>
   </si>
   <si>
-    <t xml:space="preserve"> 5 - ACTUAL </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0 - GRANT NOT BILLED/AUTO BILL </t>
   </si>
   <si>
@@ -320,15 +317,6 @@
     <t>TransCode</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09999 - NON-BUDGETED </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15999 - FEDERAL AID BILLING - CONSTRUCTION </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9999 - FEDERAL AID BILLING </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0500 - FEDERAL FUND </t>
   </si>
   <si>
@@ -371,7 +359,19 @@
     <t>txt_grantNumber_gcp</t>
   </si>
   <si>
-    <t>AA000Q</t>
+    <t>AA000S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09003 - FACILITIES AND CAPITAL EQUIPMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29088 - CONSOL TRANS BONDS SINKING FUND </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0111 - PAID LEAVE - SICK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 - GRANT NOT BILLED  </t>
   </si>
 </sst>
 </file>
@@ -477,14 +477,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A0863-EA22-4C50-87FC-99A15C50A088}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -857,7 +864,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>56</v>
@@ -865,85 +872,88 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -951,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -962,10 +972,10 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -973,60 +983,60 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1034,86 +1044,31 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1127,190 +1082,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E395E41-B360-47FC-8BBA-E2EB3DBE5D8F}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="56.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="62.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="65.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="16384" width="12.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:27" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="6">
+        <v>90</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" s="6">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2">
-        <v>90</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="X2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="T2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U2">
-        <v>2023</v>
-      </c>
-      <c r="V2" t="s">
-        <v>99</v>
-      </c>
-      <c r="W2" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>111</v>
+      <c r="Z2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1321,23 +1253,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256E38CA-6F22-4D42-8E9E-232C661726B4}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_PRI_GrantControlProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_PRI_GrantControlProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5581F6B7-177D-4B60-9439-F018A01293BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC87459-C744-4325-B260-7EECADA8A1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="3" r:id="rId1"/>
@@ -359,9 +359,6 @@
     <t>txt_grantNumber_gcp</t>
   </si>
   <si>
-    <t>AA000S</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 09003 - FACILITIES AND CAPITAL EQUIPMENT </t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 0 - GRANT NOT BILLED  </t>
+  </si>
+  <si>
+    <t>AA0005</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A0863-EA22-4C50-87FC-99A15C50A088}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E395E41-B360-47FC-8BBA-E2EB3DBE5D8F}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1185,7 +1185,7 @@
         <v>98</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F2" s="6">
         <v>90</v>
@@ -1212,7 +1212,7 @@
         <v>71</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>72</v>
@@ -1221,16 +1221,16 @@
         <v>74</v>
       </c>
       <c r="S2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="U2" s="6">
         <v>2023</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>96</v>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_PRI_GrantControlProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_PRI_GrantControlProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC87459-C744-4325-B260-7EECADA8A1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809960A-D620-4F0F-BFC8-E9B2076BFC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
   <si>
     <t>Keyword</t>
   </si>
@@ -353,9 +353,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>dropdown_comptrollerObject_Opt_aop</t>
-  </si>
-  <si>
     <t>txt_grantNumber_gcp</t>
   </si>
   <si>
@@ -371,7 +368,10 @@
     <t xml:space="preserve"> 0 - GRANT NOT BILLED  </t>
   </si>
   <si>
-    <t>AA0005</t>
+    <t>dropdown_grantNumber_Opt_gcp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AA0010 - STP </t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -492,6 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A0863-EA22-4C50-87FC-99A15C50A088}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -860,25 +861,25 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -886,74 +887,71 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -961,10 +959,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -972,103 +970,81 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1082,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E395E41-B360-47FC-8BBA-E2EB3DBE5D8F}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1212,7 +1188,7 @@
         <v>71</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>72</v>
@@ -1221,16 +1197,16 @@
         <v>74</v>
       </c>
       <c r="S2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="U2" s="6">
         <v>2023</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>96</v>
@@ -1253,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256E38CA-6F22-4D42-8E9E-232C661726B4}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,7 +1242,7 @@
     <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -1277,7 +1253,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -1288,7 +1264,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -1299,7 +1275,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1310,7 +1286,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -1321,7 +1297,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>73</v>
       </c>
@@ -1332,7 +1308,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1341,6 +1317,42 @@
       </c>
       <c r="C7" s="2" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
